--- a/server/LISTAS/mi/DRYWALL NAC..xlsx
+++ b/server/LISTAS/mi/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45289</v>
+        <v>45302</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>

--- a/server/LISTAS/mi/DRYWALL NAC..xlsx
+++ b/server/LISTAS/mi/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45302</v>
+        <v>45306</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>

--- a/server/LISTAS/mi/DRYWALL NAC..xlsx
+++ b/server/LISTAS/mi/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>

--- a/server/LISTAS/mi/DRYWALL NAC..xlsx
+++ b/server/LISTAS/mi/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="D14" s="15" t="n">
-        <v>4375.491</v>
+        <v>7835.894</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="20">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="D15" s="15" t="n">
-        <v>4874.98</v>
+        <v>8730.41</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="20">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16" s="15" t="n">
-        <v>6081.759</v>
+        <v>10891.583</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="20">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="D17" s="15" t="n">
-        <v>7392.386</v>
+        <v>13238.733</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="20">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="D18" s="15" t="n">
-        <v>8501.228999999999</v>
+        <v>15224.515</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="20">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="D19" s="15" t="n">
-        <v>9000.715</v>
+        <v>16119.026</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="20">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="D20" s="15" t="n">
-        <v>12997.743</v>
+        <v>23277.144</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="20">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="D21" s="15" t="n">
-        <v>11188.472</v>
+        <v>20036.993</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="20">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="D22" s="15" t="n">
-        <v>13126.483</v>
+        <v>23507.7</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="20">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D23" s="15" t="n">
-        <v>14161.392</v>
+        <v>25361.078</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="20">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="D24" s="15" t="n">
-        <v>10462.154</v>
+        <v>18736.258</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="20">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="D25" s="15" t="n">
-        <v>9739.986000000001</v>
+        <v>17442.959</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="20">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D26" s="15" t="n">
-        <v>11428.204</v>
+        <v>20466.318</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="20">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D28" s="15" t="n">
-        <v>11687.961</v>
+        <v>20931.508</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="20">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D29" s="15" t="n">
-        <v>14105.485</v>
+        <v>25260.957</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="20">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="D30" s="15" t="n">
-        <v>17501.958</v>
+        <v>31343.565</v>
       </c>
       <c r="F30" s="21" t="n"/>
     </row>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D31" s="15" t="n">
-        <v>20418.983</v>
+        <v>36567.549</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="20">

--- a/server/LISTAS/mi/DRYWALL NAC..xlsx
+++ b/server/LISTAS/mi/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>

--- a/server/LISTAS/mi/DRYWALL NAC..xlsx
+++ b/server/LISTAS/mi/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="D14" s="15" t="n">
-        <v>7835.894</v>
+        <v>4375.491</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="20">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="D15" s="15" t="n">
-        <v>8730.41</v>
+        <v>4874.98</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="20">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16" s="15" t="n">
-        <v>10891.583</v>
+        <v>6081.759</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="20">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="D17" s="15" t="n">
-        <v>13238.733</v>
+        <v>7392.386</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="20">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="D18" s="15" t="n">
-        <v>15224.515</v>
+        <v>8501.228999999999</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="20">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="D19" s="15" t="n">
-        <v>16119.026</v>
+        <v>9000.715</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="20">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="D20" s="15" t="n">
-        <v>23277.144</v>
+        <v>12997.743</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="20">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="D21" s="15" t="n">
-        <v>20036.993</v>
+        <v>11188.472</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="20">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="D22" s="15" t="n">
-        <v>23507.7</v>
+        <v>13126.483</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="20">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D23" s="15" t="n">
-        <v>25361.078</v>
+        <v>14161.392</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="20">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="D24" s="15" t="n">
-        <v>18736.258</v>
+        <v>10462.154</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="20">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="D25" s="15" t="n">
-        <v>17442.959</v>
+        <v>9739.986000000001</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="20">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D26" s="15" t="n">
-        <v>20466.318</v>
+        <v>11428.204</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="20">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D28" s="15" t="n">
-        <v>20931.508</v>
+        <v>11687.961</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="20">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D29" s="15" t="n">
-        <v>25260.957</v>
+        <v>14105.485</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="20">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="D30" s="15" t="n">
-        <v>31343.565</v>
+        <v>17501.958</v>
       </c>
       <c r="F30" s="21" t="n"/>
     </row>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D31" s="15" t="n">
-        <v>36567.549</v>
+        <v>20418.983</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="20">

--- a/server/LISTAS/mi/DRYWALL NAC..xlsx
+++ b/server/LISTAS/mi/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>

--- a/server/LISTAS/mi/DRYWALL NAC..xlsx
+++ b/server/LISTAS/mi/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>

--- a/server/LISTAS/mi/DRYWALL NAC..xlsx
+++ b/server/LISTAS/mi/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>

--- a/server/LISTAS/mi/DRYWALL NAC..xlsx
+++ b/server/LISTAS/mi/DRYWALL NAC..xlsx
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="F1" s="5" t="n"/>
       <c r="G1" s="5" t="n"/>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="D14" s="15" t="n">
-        <v>4375.491</v>
+        <v>7835.894</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="20">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="D15" s="15" t="n">
-        <v>4874.98</v>
+        <v>8730.41</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="20">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16" s="15" t="n">
-        <v>6081.759</v>
+        <v>10891.583</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="20">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="D17" s="15" t="n">
-        <v>7392.386</v>
+        <v>13238.733</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="20">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="D18" s="15" t="n">
-        <v>8501.228999999999</v>
+        <v>15224.515</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="20">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="D19" s="15" t="n">
-        <v>9000.715</v>
+        <v>16119.026</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="20">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="D20" s="15" t="n">
-        <v>12997.743</v>
+        <v>23277.144</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="20">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="D21" s="15" t="n">
-        <v>11188.472</v>
+        <v>20036.993</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="20">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="D22" s="15" t="n">
-        <v>13126.483</v>
+        <v>23507.7</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="20">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D23" s="15" t="n">
-        <v>14161.392</v>
+        <v>25361.078</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="20">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="D24" s="15" t="n">
-        <v>10462.154</v>
+        <v>18736.258</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="20">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="D25" s="15" t="n">
-        <v>9739.986000000001</v>
+        <v>17442.959</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="20">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D26" s="15" t="n">
-        <v>11428.204</v>
+        <v>20466.318</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="20">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D28" s="15" t="n">
-        <v>11687.961</v>
+        <v>20931.508</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="20">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D29" s="15" t="n">
-        <v>14105.485</v>
+        <v>25260.957</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="20">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="D30" s="15" t="n">
-        <v>17501.958</v>
+        <v>31343.565</v>
       </c>
       <c r="F30" s="21" t="n"/>
     </row>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="D31" s="15" t="n">
-        <v>20418.983</v>
+        <v>36567.549</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="20">
